--- a/BranjeLK/Zbirka_struktura.xlsx
+++ b/BranjeLK/Zbirka_struktura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\GZD-Celje\PDF-Bralnik\BranjeLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\OneDrive - Univerza v Mariboru\Namizje\GZ-Celje\BranjeLK\PDF-bralnik\BranjeLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F43EFA-1AAA-41BA-8A66-5D009434C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379A3C9-D219-4DD3-8396-928EB86883AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Zap. št.</t>
   </si>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -461,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -484,7 +484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -504,13 +504,39 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I4 C7:I8 C6:I6 C5:I5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 B9:I9 A3:I8 B2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>